--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf16</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf16</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.769244333333333</v>
+      </c>
+      <c r="H2">
+        <v>5.307733</v>
+      </c>
+      <c r="I2">
+        <v>0.8057014288865171</v>
+      </c>
+      <c r="J2">
+        <v>0.8057014288865172</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.1628603333333334</v>
-      </c>
-      <c r="H2">
-        <v>0.488581</v>
-      </c>
-      <c r="I2">
-        <v>0.06904471801498469</v>
-      </c>
-      <c r="J2">
-        <v>0.06904471801498469</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N2">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O2">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P2">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q2">
-        <v>0.01536424384666667</v>
+        <v>0.06535942416199998</v>
       </c>
       <c r="R2">
-        <v>0.13827819462</v>
+        <v>0.588234817458</v>
       </c>
       <c r="S2">
-        <v>0.003584160408646168</v>
+        <v>0.01691193830097335</v>
       </c>
       <c r="T2">
-        <v>0.003584160408646167</v>
+        <v>0.01691193830097335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1628603333333334</v>
+        <v>1.769244333333333</v>
       </c>
       <c r="H3">
-        <v>0.488581</v>
+        <v>5.307733</v>
       </c>
       <c r="I3">
-        <v>0.06904471801498469</v>
+        <v>0.8057014288865171</v>
       </c>
       <c r="J3">
-        <v>0.06904471801498469</v>
+        <v>0.8057014288865172</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.829335</v>
       </c>
       <c r="O3">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P3">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q3">
-        <v>0.1535954804038889</v>
+        <v>1.668594971950556</v>
       </c>
       <c r="R3">
-        <v>1.382359323635</v>
+        <v>15.017354747555</v>
       </c>
       <c r="S3">
-        <v>0.03583064974135008</v>
+        <v>0.4317537306479025</v>
       </c>
       <c r="T3">
-        <v>0.03583064974135008</v>
+        <v>0.4317537306479025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1628603333333334</v>
+        <v>1.769244333333333</v>
       </c>
       <c r="H4">
-        <v>0.488581</v>
+        <v>5.307733</v>
       </c>
       <c r="I4">
-        <v>0.06904471801498469</v>
+        <v>0.8057014288865171</v>
       </c>
       <c r="J4">
-        <v>0.06904471801498469</v>
+        <v>0.8057014288865172</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.339699</v>
       </c>
       <c r="O4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P4">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q4">
-        <v>0.1270147196798889</v>
+        <v>1.379833065818555</v>
       </c>
       <c r="R4">
-        <v>1.143132477119</v>
+        <v>12.418497592367</v>
       </c>
       <c r="S4">
-        <v>0.02962990786498843</v>
+        <v>0.3570357599376414</v>
       </c>
       <c r="T4">
-        <v>0.02962990786498843</v>
+        <v>0.3570357599376415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.769244333333333</v>
+        <v>0.4266613333333333</v>
       </c>
       <c r="H5">
-        <v>5.307733</v>
+        <v>1.279984</v>
       </c>
       <c r="I5">
-        <v>0.7500720009247773</v>
+        <v>0.1942985711134829</v>
       </c>
       <c r="J5">
-        <v>0.7500720009247773</v>
+        <v>0.1942985711134829</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09434000000000002</v>
+        <v>0.036942</v>
       </c>
       <c r="N5">
-        <v>0.28302</v>
+        <v>0.110826</v>
       </c>
       <c r="O5">
-        <v>0.05191071108246545</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="P5">
-        <v>0.05191071108246544</v>
+        <v>0.02099032928903418</v>
       </c>
       <c r="Q5">
-        <v>0.1669105104066667</v>
+        <v>0.015761722976</v>
       </c>
       <c r="R5">
-        <v>1.50219459366</v>
+        <v>0.141855506784</v>
       </c>
       <c r="S5">
-        <v>0.03893677093105288</v>
+        <v>0.00407839098806083</v>
       </c>
       <c r="T5">
-        <v>0.03893677093105287</v>
+        <v>0.00407839098806083</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.769244333333333</v>
+        <v>0.4266613333333333</v>
       </c>
       <c r="H6">
-        <v>5.307733</v>
+        <v>1.279984</v>
       </c>
       <c r="I6">
-        <v>0.7500720009247773</v>
+        <v>0.1942985711134829</v>
       </c>
       <c r="J6">
-        <v>0.7500720009247773</v>
+        <v>0.1942985711134829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.829335</v>
       </c>
       <c r="O6">
-        <v>0.5189484550226392</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="P6">
-        <v>0.5189484550226391</v>
+        <v>0.5358731102718634</v>
       </c>
       <c r="Q6">
-        <v>1.668594971950556</v>
+        <v>0.4023892811822222</v>
       </c>
       <c r="R6">
-        <v>15.017354747555</v>
+        <v>3.62150353064</v>
       </c>
       <c r="S6">
-        <v>0.3892487060356528</v>
+        <v>0.1041193796239609</v>
       </c>
       <c r="T6">
-        <v>0.3892487060356527</v>
+        <v>0.1041193796239609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.769244333333333</v>
+        <v>0.4266613333333333</v>
       </c>
       <c r="H7">
-        <v>5.307733</v>
+        <v>1.279984</v>
       </c>
       <c r="I7">
-        <v>0.7500720009247773</v>
+        <v>0.1942985711134829</v>
       </c>
       <c r="J7">
-        <v>0.7500720009247773</v>
+        <v>0.1942985711134829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>2.339699</v>
       </c>
       <c r="O7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391025</v>
       </c>
       <c r="P7">
-        <v>0.4291408338948954</v>
+        <v>0.4431365604391026</v>
       </c>
       <c r="Q7">
-        <v>1.379833065818555</v>
+        <v>0.3327530316462222</v>
       </c>
       <c r="R7">
-        <v>12.418497592367</v>
+        <v>2.994777284816</v>
       </c>
       <c r="S7">
-        <v>0.3218865239580717</v>
+        <v>0.08610080050146117</v>
       </c>
       <c r="T7">
-        <v>0.3218865239580717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4266613333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.279984</v>
-      </c>
-      <c r="I8">
-        <v>0.180883281060238</v>
-      </c>
-      <c r="J8">
-        <v>0.180883281060238</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.09434000000000002</v>
-      </c>
-      <c r="N8">
-        <v>0.28302</v>
-      </c>
-      <c r="O8">
-        <v>0.05191071108246545</v>
-      </c>
-      <c r="P8">
-        <v>0.05191071108246544</v>
-      </c>
-      <c r="Q8">
-        <v>0.04025123018666667</v>
-      </c>
-      <c r="R8">
-        <v>0.36226107168</v>
-      </c>
-      <c r="S8">
-        <v>0.009389779742766408</v>
-      </c>
-      <c r="T8">
-        <v>0.009389779742766408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4266613333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.279984</v>
-      </c>
-      <c r="I9">
-        <v>0.180883281060238</v>
-      </c>
-      <c r="J9">
-        <v>0.180883281060238</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.9431116666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.829335</v>
-      </c>
-      <c r="O9">
-        <v>0.5189484550226392</v>
-      </c>
-      <c r="P9">
-        <v>0.5189484550226391</v>
-      </c>
-      <c r="Q9">
-        <v>0.4023892811822222</v>
-      </c>
-      <c r="R9">
-        <v>3.621503530639999</v>
-      </c>
-      <c r="S9">
-        <v>0.09386909924563631</v>
-      </c>
-      <c r="T9">
-        <v>0.0938690992456363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4266613333333333</v>
-      </c>
-      <c r="H10">
-        <v>1.279984</v>
-      </c>
-      <c r="I10">
-        <v>0.180883281060238</v>
-      </c>
-      <c r="J10">
-        <v>0.180883281060238</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7798996666666667</v>
-      </c>
-      <c r="N10">
-        <v>2.339699</v>
-      </c>
-      <c r="O10">
-        <v>0.4291408338948954</v>
-      </c>
-      <c r="P10">
-        <v>0.4291408338948954</v>
-      </c>
-      <c r="Q10">
-        <v>0.3327530316462222</v>
-      </c>
-      <c r="R10">
-        <v>2.994777284815999</v>
-      </c>
-      <c r="S10">
-        <v>0.07762440207183527</v>
-      </c>
-      <c r="T10">
-        <v>0.07762440207183527</v>
+        <v>0.08610080050146117</v>
       </c>
     </row>
   </sheetData>
